--- a/src/data/info.xlsx
+++ b/src/data/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterina/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1536B75F-2628-2D4F-BAA5-DD0D3C509E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71826D7D-33F3-EC46-9534-CDDA77A7C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="2" xr2:uid="{37C69002-F16C-DF45-A5ED-EAB5C84F9324}"/>
   </bookViews>
@@ -1061,6 +1061,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -2996,7 +2999,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3084,9 +3087,6 @@
       <c r="H3">
         <v>5</v>
       </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -3145,7 +3145,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>114</v>
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3159,25 +3162,25 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>115</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>117</v>
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>103</v>
@@ -3185,25 +3188,25 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>118</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>120</v>
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>103</v>
@@ -3211,22 +3214,16 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>121</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3235,24 +3232,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3267,18 +3264,18 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3293,18 +3290,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>132</v>
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3313,24 +3313,24 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3345,18 +3345,18 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3371,21 +3371,18 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3394,27 +3391,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3428,16 +3422,19 @@
       <c r="F16">
         <v>1</v>
       </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3452,18 +3449,21 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3472,24 +3472,24 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3504,21 +3504,18 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3527,33 +3524,30 @@
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>103</v>
@@ -3561,16 +3555,22 @@
       <c r="F21">
         <v>1</v>
       </c>
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3579,24 +3579,24 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3611,21 +3611,18 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3634,24 +3631,27 @@
         <v>0</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3660,33 +3660,30 @@
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>103</v>
@@ -3694,11 +3691,14 @@
       <c r="F26">
         <v>1</v>
       </c>
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
